--- a/Prototipo_Tabla/Lista_de_tickets_.xlsx
+++ b/Prototipo_Tabla/Lista_de_tickets_.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dulce\source\repos\julianMondragon\TAS360\Prototipo_Tabla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81E2A82-F824-47A2-AE21-B28214E5437D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D42317-6BCB-4353-AA31-072869B65CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -114,6 +114,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -479,22 +485,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1995" topLeftCell="A8" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2850" topLeftCell="A8"/>
+      <selection activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="78.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20" style="2" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="1" customWidth="1"/>
@@ -505,34 +510,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="E3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -563,7 +568,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:C5"/>
